--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>storyId</t>
   </si>
@@ -198,6 +198,50 @@
   </si>
   <si>
     <t>9041;9043;9044;9045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年全国，冀州巨鹿人张角掀起了大规模叛乱。2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城.5月，朱儁与孙坚围攻南阳黄巾军.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平四年，长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年，边章、韩遂在凉州作乱，车骑将军张温与孙坚统率诸郡的步骑兵十余万驻扎在美阳，边章、韩遂也进军美阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平四年，周朝、郭石等人在零陵、桂阳一带叛乱，与区星遥相呼应。孙坚就越过郡界，前往征讨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年，关东州郡起兵讨董。冬，孙坚率兵前进，到达鲁阳，与袁术联手，袁术表奏孙坚为破虏将军，兼领豫州刺史。董卓派东郡太守胡轸引兵赴鲁阳迎战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年2月，孙坚率豫州军向梁东进发，不料被徐荣包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，梁东之战后，孙坚进占太谷阳人，准备伺机再战。董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，阳人之战后，董卓亲自引兵与孙坚交战，结果遭到孙坚重创。孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年2月，反董联军解散。初平三年1月，孙坚受袁术调遣，征讨荆州刘表。刘表派黄祖迎击孙坚，孙坚大胜，乘胜追击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，孙坚南征北战，击败董卓、刘表等，领豫州刺史。诸将封赏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,10 +285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,22 +597,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,8 +632,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -601,8 +655,11 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -621,8 +678,11 @@
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -641,8 +701,11 @@
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -661,8 +724,11 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -681,8 +747,11 @@
       <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -701,8 +770,11 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -721,8 +793,11 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -741,8 +816,11 @@
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -761,8 +839,11 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -780,6 +861,9 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>storyId</t>
   </si>
@@ -32,10 +32,6 @@
     <t>reward</t>
   </si>
   <si>
-    <t>6001-50;6002-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>talk</t>
   </si>
   <si>
@@ -54,43 +50,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCity</t>
+  </si>
+  <si>
+    <t>targetCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平四年，长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>talk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容，以;分割。人物ID字符串和文本用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetCity</t>
-  </si>
-  <si>
-    <t>targetCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标城池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（方便参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1001</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1005</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1008</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1010</t>
   </si>
   <si>
     <t>宛城之战</t>
@@ -101,7 +171,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8001-4002</t>
+    <t>光和七年（184年）5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,7 +183,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长沙之战</t>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002;4003;4004;4005;4006;4007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,127 +195,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8001-4003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9026;9040;9042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁东之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳人之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>襄阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论功封赏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-4010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9026;9033;9042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9033;9040;9042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9025;9026;9033;9040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9041;9043;9044;9045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年全国，冀州巨鹿人张角掀起了大规模叛乱。2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城.5月，朱儁与孙坚围攻南阳黄巾军.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平四年，长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年，边章、韩遂在凉州作乱，车骑将军张温与孙坚统率诸郡的步骑兵十余万驻扎在美阳，边章、韩遂也进军美阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平四年，周朝、郭石等人在零陵、桂阳一带叛乱，与区星遥相呼应。孙坚就越过郡界，前往征讨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年，关东州郡起兵讨董。冬，孙坚率兵前进，到达鲁阳，与袁术联手，袁术表奏孙坚为破虏将军，兼领豫州刺史。董卓派东郡太守胡轸引兵赴鲁阳迎战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年2月，孙坚率豫州军向梁东进发，不料被徐荣包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年，梁东之战后，孙坚进占太谷阳人，准备伺机再战。董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年，阳人之战后，董卓亲自引兵与孙坚交战，结果遭到孙坚重创。孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年2月，反董联军解散。初平三年1月，孙坚受袁术调遣，征讨荆州刘表。刘表派黄祖迎击孙坚，孙坚大胜，乘胜追击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年，孙坚南征北战，击败董卓、刘表等，领豫州刺史。诸将封赏。</t>
+    <t>4001;4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进军鲁阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9025;9033;9040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）冬，孙坚率兵前进，到达鲁阳，与袁术联手，袁术表奏孙坚为破虏将军，兼领豫州刺史。</t>
+  </si>
+  <si>
+    <t>初平二年（191年）2月，孙坚率豫州军向梁东进发，不料被徐荣包围，豫州兵全军溃败，孙坚和十几个骑兵突围逃出。孙坚一路收集散兵，进占太谷阳人，准备伺机再战。董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。孙坚大破董卓，斩华雄。阳人之战后，董卓亲自引兵与孙坚交战，结果遭到孙坚重创。孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004;4005;4006;4007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -608,262 +596,243 @@
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>601</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>107</v>
+        <v>601</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>607</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>601</v>
+        <v>1201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1201</v>
+        <v>601</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="F7" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4003</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1301</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>101</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>602</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>607</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -897,26 +866,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,15 +893,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述（方便参考）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对话内容id_str，以;分割。</t>
   </si>
   <si>
@@ -171,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光和七年（184年）5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美阳之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进军鲁阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,11 +209,27 @@
     <t>初平元年（190年）冬，孙坚率兵前进，到达鲁阳，与袁术联手，袁术表奏孙坚为破虏将军，兼领豫州刺史。</t>
   </si>
   <si>
-    <t>初平二年（191年）2月，孙坚率豫州军向梁东进发，不料被徐荣包围，豫州兵全军溃败，孙坚和十几个骑兵突围逃出。孙坚一路收集散兵，进占太谷阳人，准备伺机再战。董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。孙坚大破董卓，斩华雄。阳人之战后，董卓亲自引兵与孙坚交战，结果遭到孙坚重创。孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4004;4005;4006;4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年）2月，孙坚率豫州军进占太谷阳人，董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。孙坚大破董卓，斩华雄。后孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -640,14 +640,14 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -669,13 +669,13 @@
         <v>601</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>1006</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -698,13 +698,13 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>1010</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -730,25 +730,25 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>3001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -756,13 +756,13 @@
         <v>1201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -785,13 +785,13 @@
         <v>601</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>5001</v>
@@ -803,10 +803,10 @@
         <v>4003</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -817,10 +817,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +847,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -925,7 +925,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>storyId</t>
   </si>
@@ -230,6 +230,26 @@
   </si>
   <si>
     <t>初平二年（191年）2月，孙坚率豫州军进占太谷阳人，董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。孙坚大破董卓，斩华雄。后孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,25 +605,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="71.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="71.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,25 +635,28 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -642,26 +666,29 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -671,26 +698,29 @@
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1006</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -700,26 +730,29 @@
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>1010</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -729,26 +762,29 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3001</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -758,26 +794,29 @@
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -790,23 +829,26 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>5001</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>4003</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -816,22 +858,25 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -844,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,49 +927,57 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>storyId</t>
   </si>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4002;4003;4004;4005;4006;4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9037;9038;9039</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,46 @@
   </si>
   <si>
     <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002;4003;4004;4005;4006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,15 +652,16 @@
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="71.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="71.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -644,19 +681,22 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -667,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -675,20 +715,23 @@
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>4007</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -707,20 +750,23 @@
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>1006</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -739,20 +785,23 @@
       <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>1010</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -766,25 +815,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1">
         <v>3001</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -792,31 +844,34 @@
         <v>1201</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -824,7 +879,7 @@
         <v>601</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -835,20 +890,23 @@
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1">
         <v>5001</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>4003</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -862,22 +920,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>56</v>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,10 +988,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -951,34 +1012,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>52</v>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>storyId</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,27 +653,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.25" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="71.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -675,28 +687,31 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -712,26 +727,29 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>4007</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -744,29 +762,32 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1006</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -779,29 +800,32 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>1010</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -814,29 +838,32 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3001</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -852,26 +879,29 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -887,26 +917,29 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>5001</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>4003</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -919,25 +952,28 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -950,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,57 +1032,65 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -81,223 +81,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平四年，长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1001</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1004</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1005</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1008</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1010</t>
+  </si>
+  <si>
+    <t>宛城之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9009;9010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9037;9038;9039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001;4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进军鲁阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9025;9033;9040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）冬，孙坚率兵前进，到达鲁阳，与袁术联手，袁术表奏孙坚为破虏将军，兼领豫州刺史。</t>
+  </si>
+  <si>
+    <t>4004;4005;4006;4007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年）2月，孙坚率豫州军进占太谷阳人，董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。孙坚大破董卓，斩华雄。后孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002;4003;4004;4005;4006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>洛阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平四年，长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物品，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励官职Id_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励武将Id_str, 以;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄巾之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容id_str，以;分割。</t>
-  </si>
-  <si>
-    <t>1001;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1001</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1004</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1005</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1008</t>
-  </si>
-  <si>
-    <t>6001-1000;6002-1010</t>
-  </si>
-  <si>
-    <t>宛城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9009;9010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9037;9038;9039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4001;4002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨伐董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进军鲁阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9025;9033;9040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年（190年）冬，孙坚率兵前进，到达鲁阳，与袁术联手，袁术表奏孙坚为破虏将军，兼领豫州刺史。</t>
-  </si>
-  <si>
-    <t>4004;4005;4006;4007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述（战斗介绍用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城。4月，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年（191年）2月，孙坚率豫州军进占太谷阳人，董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。孙坚大破董卓，斩华雄。后孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线剧情动画文件，0标识无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taodonglianjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000;404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000;402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4002;4003;4004;4005;4006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗ID字符串，0标识无战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I21" activeCellId="1" sqref="I21 I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,10 +684,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -696,19 +696,19 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -719,22 +719,22 @@
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>4007</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -757,22 +757,22 @@
         <v>601</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>401</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>1006</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -795,22 +795,22 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>402</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>1010</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -839,28 +839,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1">
         <v>3001</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -871,34 +871,34 @@
         <v>1201</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -909,7 +909,7 @@
         <v>601</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1">
         <v>5001</v>
@@ -936,7 +936,7 @@
         <v>4003</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -947,22 +947,22 @@
         <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1024,18 +1024,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1051,31 +1051,31 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1083,15 +1083,15 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig4.xlsx
+++ b/tbl打包工具/excel/storyConfig4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
   <si>
     <t>storyId</t>
   </si>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情类型，1事件叙述，2武将来投，3主线任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,6 +643,50 @@
   </si>
   <si>
     <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移至城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封官拜将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,12 +784,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -791,7 +834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,7 +869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" activeCellId="2" sqref="F32 F32 F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1167,7 +1210,7 @@
         <v>101</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1175,13 +1218,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>801</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -1190,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1199,13 +1242,13 @@
         <v>2003</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="6">
         <v>4001</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1219,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1243,7 +1286,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1251,22 +1294,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1281,7 +1324,7 @@
         <v>103</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1289,13 +1332,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>408</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1304,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1319,7 +1362,7 @@
         <v>4002</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1327,13 +1370,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1342,7 +1385,7 @@
         <v>401</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1357,7 +1400,7 @@
         <v>4003</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1371,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1395,7 +1438,7 @@
         <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1403,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>407</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1418,7 +1461,7 @@
         <v>402</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1433,7 +1476,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1441,13 +1484,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>704</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1456,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1471,7 +1514,7 @@
         <v>4004</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1485,31 +1528,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="L12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1523,7 +1566,7 @@
         <v>409</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1532,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1541,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="6">
         <v>4005</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1555,22 +1598,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1585,7 +1628,7 @@
         <v>111</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1599,31 +1642,31 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1631,13 +1674,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>408</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1646,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1661,7 +1704,7 @@
         <v>4006</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1669,13 +1712,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6">
         <v>9012</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1684,7 +1727,7 @@
         <v>403</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1699,7 +1742,7 @@
         <v>4007</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1707,13 +1750,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>403</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1722,7 +1765,7 @@
         <v>404</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1737,7 +1780,7 @@
         <v>4008</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1745,13 +1788,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>704</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1760,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -1775,7 +1818,7 @@
         <v>4009</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1789,31 +1832,31 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1821,22 +1864,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5">
         <v>704</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1851,7 +1894,7 @@
         <v>116</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1865,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1874,7 +1917,7 @@
         <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -1889,7 +1932,7 @@
         <v>3012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1903,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1912,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -1927,7 +1970,7 @@
         <v>3013</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1941,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -1965,7 +2008,7 @@
         <v>113</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1979,7 +2022,7 @@
         <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1988,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -1997,13 +2040,13 @@
         <v>5001</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="6">
         <v>3014</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2017,7 +2060,7 @@
         <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2026,7 +2069,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -2041,7 +2084,7 @@
         <v>3015</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2055,31 +2098,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2093,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -2117,7 +2160,7 @@
         <v>3016</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2131,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2140,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2155,7 +2198,7 @@
         <v>3017</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2169,19 +2212,19 @@
         <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2193,7 +2236,7 @@
         <v>3018</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2207,7 +2250,7 @@
         <v>9009</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2216,10 +2259,10 @@
         <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2231,7 +2274,7 @@
         <v>3019</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2245,7 +2288,7 @@
         <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2254,10 +2297,10 @@
         <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2269,7 +2312,7 @@
         <v>3020</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2283,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2307,7 +2350,7 @@
         <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2321,31 +2364,31 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2359,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2383,7 +2426,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2397,7 +2440,7 @@
         <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2406,10 +2449,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2421,7 +2464,7 @@
         <v>3021</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2433,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2445,7 +2488,7 @@
     <col min="2" max="2" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2453,23 +2496,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2477,7 +2520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2485,7 +2528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2493,7 +2536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2501,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2509,7 +2552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2517,7 +2560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2525,20 +2568,92 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
